--- a/config/project/板级测试/报表模板.xlsx
+++ b/config/project/板级测试/报表模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\直流充电桩板级检验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\板级测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2025,83 +2025,83 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2443,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -2475,29 +2475,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="61" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="62"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="20"/>
@@ -2508,10 +2508,10 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="44" t="s">
         <v>115</v>
       </c>
@@ -2519,8 +2519,8 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
     </row>
@@ -2538,35 +2538,35 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="62"/>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="45" t="s">
         <v>119</v>
       </c>
@@ -2574,24 +2574,24 @@
         <v>20</v>
       </c>
       <c r="E8" s="62"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="62" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="62"/>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="29" t="s">
         <v>122</v>
       </c>
@@ -2618,19 +2618,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="34" t="s">
         <v>2</v>
       </c>
@@ -2639,21 +2639,21 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="46" t="s">
         <v>123</v>
       </c>
@@ -2663,17 +2663,17 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="46" t="s">
         <v>124</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="60" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -2710,10 +2710,10 @@
       <c r="K14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="72"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
@@ -2736,11 +2736,11 @@
       <c r="K15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="72"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="51" t="s">
@@ -2760,17 +2760,17 @@
       <c r="I16" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="72"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
@@ -2784,12 +2784,12 @@
       <c r="I17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="72"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="38" t="s">
         <v>38</v>
       </c>
@@ -2819,8 +2819,8 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -2840,17 +2840,17 @@
       <c r="I19" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
@@ -2866,13 +2866,13 @@
       <c r="I20" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
@@ -2888,13 +2888,13 @@
       <c r="I21" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
@@ -2910,13 +2910,13 @@
       <c r="I22" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="51" t="s">
         <v>42</v>
       </c>
@@ -2934,17 +2934,17 @@
       <c r="I23" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
@@ -2960,13 +2960,13 @@
       <c r="I24" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
@@ -2982,13 +2982,13 @@
       <c r="I25" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -3004,13 +3004,13 @@
       <c r="I26" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="51" t="s">
@@ -3030,17 +3030,17 @@
       <c r="I27" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
@@ -3056,13 +3056,13 @@
       <c r="I28" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -3078,13 +3078,13 @@
       <c r="I29" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
@@ -3100,13 +3100,13 @@
       <c r="I30" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="51" t="s">
         <v>45</v>
       </c>
@@ -3124,17 +3124,17 @@
       <c r="I31" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -3150,13 +3150,13 @@
       <c r="I32" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
@@ -3172,13 +3172,13 @@
       <c r="I33" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="59"/>
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
@@ -3194,13 +3194,13 @@
       <c r="I34" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="51" t="s">
@@ -3220,17 +3220,17 @@
       <c r="I35" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="J35" s="55" t="s">
+      <c r="J35" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
       <c r="E36" s="51"/>
@@ -3246,13 +3246,13 @@
       <c r="I36" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="51" t="s">
         <v>49</v>
       </c>
@@ -3270,17 +3270,17 @@
       <c r="I37" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="J37" s="55" t="s">
+      <c r="J37" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
@@ -3296,13 +3296,13 @@
       <c r="I38" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
       <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="51" t="s">
@@ -3322,17 +3322,17 @@
       <c r="I39" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="J39" s="55" t="s">
+      <c r="J39" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51"/>
@@ -3348,13 +3348,13 @@
       <c r="I40" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -3370,13 +3370,13 @@
       <c r="I41" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
       <c r="L41" s="33"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="51" t="s">
         <v>63</v>
       </c>
@@ -3394,13 +3394,13 @@
       <c r="I42" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="59"/>
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="51" t="s">
@@ -3420,17 +3420,17 @@
       <c r="I43" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J43" s="55" t="s">
+      <c r="J43" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51"/>
       <c r="E44" s="51"/>
@@ -3446,13 +3446,13 @@
       <c r="I44" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
       <c r="E45" s="51"/>
@@ -3468,13 +3468,13 @@
       <c r="I45" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="J45" s="55"/>
-      <c r="K45" s="56"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
       <c r="L45" s="33"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="51" t="s">
         <v>68</v>
       </c>
@@ -3492,12 +3492,12 @@
       <c r="I46" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="J46" s="55"/>
-      <c r="K46" s="56"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="38" t="s">
         <v>69</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="L47" s="41"/>
     </row>
     <row r="48" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="38" t="s">
         <v>71</v>
       </c>
@@ -3538,8 +3538,8 @@
       <c r="G48" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
       <c r="J48" s="49" t="s">
         <v>250</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="L48" s="33"/>
     </row>
     <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="38" t="s">
         <v>74</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="60" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="38" t="s">
@@ -3594,8 +3594,8 @@
       <c r="G50" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="49" t="s">
         <v>253</v>
       </c>
@@ -3607,7 +3607,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="31" t="s">
         <v>29</v>
       </c>
@@ -3633,8 +3633,8 @@
       <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="51" t="s">
@@ -3645,12 +3645,12 @@
       <c r="F52" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="75" t="s">
+      <c r="G52" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="55" t="s">
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58" t="s">
         <v>4</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -3659,8 +3659,8 @@
       <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
@@ -3672,15 +3672,15 @@
       </c>
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="9"/>
       <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="51" t="s">
@@ -3691,20 +3691,20 @@
       <c r="F54" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="55"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
       <c r="K54" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L54" s="41"/>
     </row>
     <row r="55" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
@@ -3716,15 +3716,15 @@
       </c>
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="51" t="s">
@@ -3740,17 +3740,17 @@
       </c>
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
-      <c r="J56" s="55" t="s">
+      <c r="J56" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K56" s="56" t="s">
+      <c r="K56" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="51" t="s">
         <v>88</v>
       </c>
@@ -3764,13 +3764,13 @@
       </c>
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="59"/>
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="60" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="51" t="s">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
-      <c r="J58" s="55" t="s">
+      <c r="J58" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="56" t="s">
+      <c r="K58" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="51"/>
       <c r="D59" s="51"/>
       <c r="E59" s="51"/>
@@ -3808,12 +3808,12 @@
       </c>
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="59"/>
       <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="38" t="s">
         <v>94</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="L60" s="41"/>
     </row>
     <row r="61" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="38" t="s">
         <v>97</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="L61" s="41"/>
     </row>
     <row r="62" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="38" t="s">
         <v>99</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="38" t="s">
         <v>101</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="38" t="s">
         <v>108</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="38" t="s">
         <v>69</v>
       </c>
@@ -3969,8 +3969,8 @@
       <c r="L65" s="41"/>
     </row>
     <row r="66" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="60" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="51" t="s">
@@ -3984,8 +3984,8 @@
       <c r="G66" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="49" t="s">
         <v>238</v>
       </c>
@@ -3995,8 +3995,8 @@
       <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="51" t="s">
         <v>104</v>
       </c>
@@ -4008,8 +4008,8 @@
       <c r="G67" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="49" t="s">
         <v>239</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="38" t="s">
         <v>74</v>
       </c>
@@ -4059,13 +4059,13 @@
       <c r="D71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
       <c r="G71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
       <c r="J71" s="10" t="s">
         <v>10</v>
       </c>
@@ -4073,6 +4073,106 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:E45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:E30"/>
+    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C39:E41"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A14:A49"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="G68:I68"/>
@@ -4097,106 +4197,6 @@
     <mergeCell ref="C58:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A14:A49"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="C39:E41"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:E45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:E30"/>
-    <mergeCell ref="C31:E34"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.39370078740157483" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
